--- a/Projeto_Dio_Criado um organizador de declaração de imposto de renda.xlsx
+++ b/Projeto_Dio_Criado um organizador de declaração de imposto de renda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750" tabRatio="0" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Títular" sheetId="1" r:id="rId1"/>
@@ -1085,6 +1085,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1194,6 +1195,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3147,7 +3149,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> BY DIO </a:t>
+            <a:t> BY NAÍ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0">
@@ -4406,7 +4408,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> BY DIO </a:t>
+            <a:t> BY NAÍ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0">
@@ -4999,7 +5001,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5314,7 +5316,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
